--- a/해양생물.xlsx
+++ b/해양생물.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\verified_species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5FD14D-79D7-4CD5-98CE-976BCB097EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9B58D-FE2F-4881-B3DE-791255D55D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22524" windowHeight="10704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22524" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="해양생물" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,60 +1000,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/해양생물.xlsx
+++ b/해양생물.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\verified_species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9B58D-FE2F-4881-B3DE-791255D55D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C13C0-9A0C-4CDA-BE21-82C7C5814E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22524" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="10">
   <si>
     <t>Gadus morhua</t>
   </si>
@@ -1001,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1025,37 +1025,558 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>9</v>
       </c>
     </row>
